--- a/biology/Botanique/Platycodon_grandiflorus/Platycodon_grandiflorus.xlsx
+++ b/biology/Botanique/Platycodon_grandiflorus/Platycodon_grandiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Platycodon, Platycodon grandiflorus, appelé aussi campanule à grandes fleurs ou kikyô (キキョウ, kikyō?) en japonais, est une espèce de plantes herbacées vivaces, originaire d'Extrême-Orient (Sibérie, péninsule coréenne, Japon, Chine du Nord). C'est la seule espèce actuellement reconnue du genre Platycodon.
 Cette plante est le symbole des villes japonaises d'Ichinomiya et d'Isehara.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante hémicryptophyte, elle mesure de 20 cm à 100 cm (le plus souvent environ 50 cm).
 Son feuillage est caduc. Ses feuilles sont ovales.
-Elle fleurit pendant tout l'été. Les boutons floraux se gonflent en ballons avant de s'ouvrir, d'où le nom anglais de « balloon flower » ou allemand de "Ballonblume" (« fleur ballon »). Ses fleurs en clochettes bleues ou blanches[4] mesurent 5 cm et sont composées de 5 pétales pentagonaux fortement veinés.
+Elle fleurit pendant tout l'été. Les boutons floraux se gonflent en ballons avant de s'ouvrir, d'où le nom anglais de « balloon flower » ou allemand de "Ballonblume" (« fleur ballon »). Ses fleurs en clochettes bleues ou blanches mesurent 5 cm et sont composées de 5 pétales pentagonaux fortement veinés.
 Les tiges disparaissent totalement en hiver, mais la racine résiste bien au gel et émet de nouvelles tiges au milieu du printemps.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Habitat naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante qui pousse (entre autres) dans des milieux ouverts de types prairiaux[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante qui pousse (entre autres) dans des milieux ouverts de types prairiaux.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le platycodon est largement cultivé comme plante ornementale. La racine est utilisée en médecine chinoise, en tisane en Corée.
-La racine, mélangée à des épices, est traditionnellement consommées en Corée. Les pousses sont aussi parfois consommées[6].
+La racine, mélangée à des épices, est traditionnellement consommées en Corée. Les pousses sont aussi parfois consommées.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante doit être plantée (soleil ou mi-ombre), dans un sol drainé, frais, humifère, plutôt riche, même calcaire, au printemps ou à l'automne. Il faut bien choisir son emplacement, car elle n'aime pas être déplacée.
 Pour la multiplication, semis (2 à 3 semaines pour la levée) ou division au printemps tous les trois ans.
@@ -649,13 +669,15 @@
           <t>Liste des variétés, formes et cultivars</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 septembre 2018)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 septembre 2018) :
 cultivar Platycodon grandiflorus 'Apoyama'
-Selon NCBI  (3 septembre 2018)[7] :
+Selon NCBI  (3 septembre 2018) :
 forme Platycodon grandiflorus f. albiflorus (Honda) H.Hara
-Selon Tropicos                                           (3 septembre 2018)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Platycodon grandiflorus var. albus Stubenrauch
 variété Platycodon grandiflorus var. autumnalis Voss
 variété Platycodon grandiflorus var. duplex Makino
